--- a/testy_modułów/TESTY_UPROSZCZONE/ListaElementow.xlsx
+++ b/testy_modułów/TESTY_UPROSZCZONE/ListaElementow.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D20"/>
+  <dimension ref="A1:D22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -537,7 +537,7 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Archiwum</t>
+          <t>W trakcie</t>
         </is>
       </c>
     </row>
@@ -553,7 +553,7 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Archiwum</t>
+          <t>W trakcie</t>
         </is>
       </c>
     </row>
@@ -569,7 +569,7 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Archiwum</t>
+          <t>W trakcie</t>
         </is>
       </c>
     </row>
@@ -585,7 +585,7 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Archiwum</t>
+          <t>W trakcie</t>
         </is>
       </c>
     </row>
@@ -665,7 +665,7 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>W trakcie</t>
+          <t>Nie znaleziono</t>
         </is>
       </c>
     </row>
@@ -681,7 +681,7 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>W trakcie</t>
+          <t>Nie znaleziono</t>
         </is>
       </c>
     </row>
@@ -697,7 +697,7 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>W trakcie</t>
+          <t>Nie znaleziono</t>
         </is>
       </c>
     </row>
@@ -713,7 +713,7 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>W trakcie</t>
+          <t>Nie znaleziono</t>
         </is>
       </c>
     </row>
@@ -762,6 +762,38 @@
       <c r="D20" t="inlineStr">
         <is>
           <t>Archiwum</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>116</v>
+      </c>
+      <c r="B21" t="inlineStr"/>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>prd.plik.dld</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>W trakcie</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>117</v>
+      </c>
+      <c r="B22" t="inlineStr"/>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>prd.60x30.dld</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>W trakcie</t>
         </is>
       </c>
     </row>
